--- a/output/exported_homehealthaides.xlsx
+++ b/output/exported_homehealthaides.xlsx
@@ -2269,7 +2269,7 @@
         <v>40</v>
       </c>
       <c r="C100">
-        <v>0.679</v>
+        <v>0.6790000000000001</v>
       </c>
     </row>
     <row r="101">
